--- a/test/diem_so_1_chu_so_thap_phan.xlsx
+++ b/test/diem_so_1_chu_so_thap_phan.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Điểm số" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Điểm số" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,442 +456,442 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>7.8</v>
+        <v>5.5</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>7.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>8.9</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>5.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>9.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>8.300000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>2.4</v>
+        <v>9.4</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>8.199999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>7.3</v>
+        <v>1.4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>8.5</v>
+        <v>5.4</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>0.8</v>
+        <v>7.7</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>8.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>8.199999999999999</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>6.8</v>
+        <v>0.2</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>0.9</v>
+        <v>8.5</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>7</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>8.5</v>
+        <v>4.1</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>5.3</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>5.1</v>
+        <v>6.3</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>9.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>7.8</v>
+        <v>6.1</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>6.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>8.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>9.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>2.6</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>9.4</v>
+        <v>6.1</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>8.4</v>
+        <v>5.8</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="B26" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C26" s="2" t="n">
         <v>5.7</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>4.4</v>
+        <v>9.9</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>8</v>
+        <v>5.8</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>2.7</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>1.9</v>
+        <v>9.5</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>6.7</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>5.4</v>
+        <v>8.5</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>5.5</v>
+        <v>8.1</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>5.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>5.5</v>
+        <v>8.1</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>6.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>8.9</v>
+        <v>0.4</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>6.6</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>8.5</v>
+        <v>6.3</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>5.1</v>
+        <v>7.3</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>6.9</v>
+        <v>4.9</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>2.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>7.3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>8.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>5.5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B41" s="2" t="n">
         <v>7.4</v>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>7.6</v>
-      </c>
       <c r="C41" s="2" t="n">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
     </row>
   </sheetData>
